--- a/data_excel/176.xlsx
+++ b/data_excel/176.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>小香</t>
   </si>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +500,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,7 +565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -581,7 +585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -594,8 +598,8 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
@@ -605,8 +609,8 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -658,7 +662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>21</v>
       </c>
@@ -669,12 +673,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
